--- a/biology/Zoologie/Apion_(genre)/Apion_(genre).xlsx
+++ b/biology/Zoologie/Apion_(genre)/Apion_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apion est un genre d'insectes curculionoïdes de l'ordre des coléoptères[1] et de la famille des Brentidae (selon A. A. Legalov 2018).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apion est un genre d'insectes curculionoïdes de l'ordre des coléoptères et de la famille des Brentidae (selon A. A. Legalov 2018).
 Plusieurs espèces de ce genre sont des ravageurs des plantes cultivées.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Apion est décrit en 1797 par l'entomologiste allemand Johann Friedrich Wilhelm Herbst (1743-1807)[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Apion est décrit en 1797 par l'entomologiste allemand Johann Friedrich Wilhelm Herbst (1743-1807),.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Liste des espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Apion cruentatum Walton 1844
-Apion croceifemoratum (références [4])
+Apion croceifemoratum (références )
 Apion dellabeffae Schatzmayr 1922
 Apion distincticolle Desbrochers 1870
 Apion frumentarium (Linnaeus 1758)
@@ -584,9 +600,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (10 janvier 2019)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (10 janvier 2019) :
 Apion cavifrons
 Apion centrale
 Apion commodum
@@ -600,7 +618,7 @@
 Apion rubens
 Apion rubiginosum
 Apion virens
-Selon Catalogue of Life                                  (28 août 2014)[6] :
+Selon Catalogue of Life                                  (28 août 2014) :
 Apion abimva
 Apion acanthi
 Apion aciculare
@@ -1173,8 +1191,43 @@
 Apion zikani
 Apion zukwalae
 Apion zukwalaense
-Espèces fossiles
-Selon Paleobiology Database en 2023, il n'y a pas d'espèce fossile référencée[3]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apion_(genre)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apion_(genre)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, il n'y a pas d'espèce fossile référencée
 </t>
         </is>
       </c>
